--- a/test_speeches/predictions/Coding_Differneces_140_AI.xlsx
+++ b/test_speeches/predictions/Coding_Differneces_140_AI.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K78"/>
+  <dimension ref="A1:L79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,64 +436,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Sentence</t>
+          <t>sentence</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Metaphor/Simile</t>
+          <t>label</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Metaphor/Similie</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Rhetorical questions</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Stories / anecdotes</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Stories/Anecdotes</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Contrasts</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lists / Repetition </t>
-        </is>
-      </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Moral conviction</t>
+          <t>Lists</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Sentiment of the collective</t>
+          <t>Repetition</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Ambitious goals / Setting high expectations</t>
+          <t>Moral_conviction</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Confidence in goals</t>
+          <t>Sentiment_of_the_collective</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Setting_high_expectations</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Hello, and thank you all so much for being here today.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
         <v>0</v>
       </c>
@@ -519,16 +520,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>I want to welcome our students who are joining us.</t>
+          <t>Hello, and thank you all so much for being here today.</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -556,23 +560,26 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Can we give them a round of applause.</t>
+          <t>I want to welcome our students who are joining us.</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -593,26 +600,29 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>I’d like to introduce you to a couple of them.</t>
+          <t>Can we give them a round of applause.</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -630,16 +640,19 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Angelique is a senior at South Salem High School.</t>
+          <t>I’d like to introduce you to a couple of them.</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -649,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -667,20 +680,23 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>The daughter of immigrant farmworkers, she has seen first hand the devastating effects of climate change: crop shortages and layoffs due to wildfire smoke, health risks due to heat waves, and the danger of working in extreme weather events.</t>
+          <t>Angelique is a senior at South Salem High School.</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -689,10 +705,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -704,20 +720,23 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>It’s inspired her to advocate, to balance academic achievement with climate activism.</t>
+          <t>The daughter of immigrant farmworkers, she has seen first hand the devastating effects of climate change: crop shortages and layoffs due to wildfire smoke, health risks due to heat waves, and the danger of working in extreme weather events.</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -732,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -741,20 +760,23 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>She led the Student Climate Strike in Salem last September that drew hundreds.</t>
+          <t>It’s inspired her to advocate, to balance academic achievement with climate activism.</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -772,22 +794,25 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Charlie is a sophomore at Cleveland High School in Portland.</t>
+          <t>She led the Student Climate Strike in Salem last September that drew hundreds.</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -797,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -815,20 +840,23 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>He has been coming to the Capitol since he was in sixth grade to testify in support of  climate action.</t>
+          <t>Charlie is a sophomore at Cleveland High School in Portland.</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -837,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -852,20 +880,23 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>That’s five sessions of waiting for adults to take action.</t>
+          <t>He has been coming to the Capitol since he was in sixth grade to testify in support of  climate action.</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -877,32 +908,35 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Five.</t>
+          <t>That’s five sessions of waiting for adults to take action.</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -917,25 +951,28 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>I’m proud that today, we are putting an end to that count.</t>
+          <t>Five.</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -954,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -963,20 +1000,23 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Young people like Angelique and Charlie are truly the reason we are here today.</t>
+          <t>I’m proud that today, we are putting an end to that count.</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -991,29 +1031,32 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>I grew up as a campfire girl, and we learned to leave the world a little better than we found it.</t>
+          <t>Young people like Angelique and Charlie are truly the reason we are here today.</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1028,29 +1071,32 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
       </c>
       <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>And in a career as an advocate and public servant, I’ve tried to do that every single day.</t>
+          <t>I grew up as a campfire girl, and we learned to leave the world a little better than we found it.</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1065,29 +1111,32 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>And while today’s young people are also encouraged to make our world a better place, our planet is running out of time.</t>
+          <t>And in a career as an advocate and public servant, I’ve tried to do that every single day.</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1096,35 +1145,38 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>I’ve heard it loud and clear from young people across  Oregon: climate action is crucial and urgent.</t>
+          <t>And while today’s young people are also encouraged to make our world a better place, our planet is running out of time.</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -1136,32 +1188,35 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
       </c>
       <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>If we don’t take action right away, it is the next generation that will pay the price.</t>
+          <t>I’ve heard it loud and clear from young people across  Oregon: climate action is crucial and urgent.</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -1176,29 +1231,32 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Neglect on our part will mean their loss.</t>
+          <t>If we don’t take action right away, it is the next generation that will pay the price.</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -1213,29 +1271,32 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>And that is simply unacceptable.</t>
+          <t>Neglect on our part will mean their loss.</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -1250,29 +1311,32 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
       </c>
       <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>From the beginning of this conversation regarding climate change, I have been very clear.</t>
+          <t>And that is simply unacceptable.</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -1290,22 +1354,25 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
       </c>
       <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Immediate efforts and bold action are needed to tackle this scourge that is devastating the Oregon we know and love.</t>
+          <t>From the beginning of this conversation regarding climate change, I have been very clear.</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -1324,29 +1391,32 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>And a smart approach can both protect the environment and continue to grow our economy.</t>
+          <t>Immediate efforts and bold action are needed to tackle this scourge that is devastating the Oregon we know and love.</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -1364,26 +1434,29 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
       </c>
       <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Hundreds of people spent countless hours over many years collaborating on a path forward via legislation using a market-based approach known as cap-and-trade.</t>
+          <t>And a smart approach can both protect the environment and continue to grow our economy.</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -1401,22 +1474,25 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
       </c>
       <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Republican lawmakers repeatedly walked out on the job, thwarting the democratic process.</t>
+          <t>Hundreds of people spent countless hours over many years collaborating on a path forward via legislation using a market-based approach known as cap-and-trade.</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -1429,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -1444,20 +1520,23 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>That is not how democracy works.</t>
+          <t>Republican lawmakers repeatedly walked out on the job, thwarting the democratic process.</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -1469,28 +1548,31 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
       </c>
       <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Their actions held Oregonians hostage and seriously damaged the legislative branch.</t>
+          <t>That is not how democracy works.</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -1509,66 +1591,72 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
       </c>
       <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Oregonians deserve to be healthy, safe, and to see opportunity in the future, no matter what happens — or doesn’t — in the Oregon legislature.</t>
+          <t>Their actions held Oregonians hostage and seriously damaged the legislative branch.</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Significant change doesn’t have to take the form of a single step.</t>
+          <t>Oregonians deserve to be healthy, safe, and to see opportunity in the future, no matter what happens — or doesn’t — in the Oregon legislature.</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -1577,35 +1665,38 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
       </c>
       <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>It can come when several actions add up.</t>
+          <t>Significant change doesn’t have to take the form of a single step.</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -1617,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1629,16 +1720,19 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>And that’s what I’m doing today.</t>
+          <t>It can come when several actions add up.</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1666,16 +1760,19 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>As Governor, I will pursue every option available to me in the Executive Branch to combat the effects of climate change.</t>
+          <t>And that’s what I’m doing today.</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1691,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -1703,20 +1800,23 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>As a state, we will put Oregon on a path our children can be proud of.</t>
+          <t>As Governor, I will pursue every option available to me in the Executive Branch to combat the effects of climate change.</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -1731,29 +1831,32 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Last July, I committed to Oregonians that if the Legislature failed to take necessary action this year, I would use the tools available to me as the Chief Executive to address climate change.</t>
+          <t>As a state, we will put Oregon on a path our children can be proud of.</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -1771,22 +1874,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>And that is exactly what I am doing today.</t>
+          <t>Last July, I committed to Oregonians that if the Legislature failed to take necessary action this year, I would use the tools available to me as the Chief Executive to address climate change.</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -1814,16 +1920,19 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>The executive order that I will sign shortly is sweeping and comprehensive, directing our state agencies to take action to urgently tackle climate change.</t>
+          <t>And that is exactly what I am doing today.</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1851,20 +1960,23 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t xml:space="preserve">I want to highlight a few major parts: </t>
+          <t>The executive order that I will sign shortly is sweeping and comprehensive, directing our state agencies to take action to urgently tackle climate change.</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -1879,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -1888,16 +2000,19 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>First, it sets new, science-based greenhouse gas reduction goals: 45% below 1990 levels by 2035 and 80% below 1990 levels by 2050.</t>
+          <t xml:space="preserve">I want to highlight a few major parts: </t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1913,7 +2028,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1925,20 +2040,23 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Second, it directs the Environmental Quality Commission to set and enforce sector-specific caps on climate pollution in three of the largest sources of emissions in our state: transportation, natural gas, and large industrial polluters.</t>
+          <t>First, it sets new, science-based greenhouse gas reduction goals: 45% below 1990 levels by 2035 and 80% below 1990 levels by 2050.</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -1950,10 +2068,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -1962,20 +2080,23 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>These caps will decline over time in order to meet our new greenhouse gas reduction goals.</t>
+          <t>Second, it directs the Environmental Quality Commission to set and enforce sector-specific caps on climate pollution in three of the largest sources of emissions in our state: transportation, natural gas, and large industrial polluters.</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -1990,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -1999,16 +2120,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Third, it doubles the Clean Fuels standard to 20% by 2030, and 25% by 2035, reducing pollution from cars and trucks.</t>
+          <t>These caps will decline over time in order to meet our new greenhouse gas reduction goals.</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -2036,16 +2160,19 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>This is the most ambitious Clean Fuels goal in the country.</t>
+          <t>Third, it doubles the Clean Fuels standard to 20% by 2030, and 25% by 2035, reducing pollution from cars and trucks.</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -2073,16 +2200,19 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>It will substantially reduce carbon emissions in the transportation sector, using a model proven to reduce pollution at a very minimal cost.</t>
+          <t>This is the most ambitious Clean Fuels goal in the country.</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -2110,20 +2240,23 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>At the same time, it will fuel new jobs in the biofuels sector and expand investment in transportation electrification.</t>
+          <t>It will substantially reduce carbon emissions in the transportation sector, using a model proven to reduce pollution at a very minimal cost.</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -2141,22 +2274,25 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
       </c>
       <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Finally, my executive order adds climate action as a lens to all state agency work, making lower carbon emissions a priority.</t>
+          <t>At the same time, it will fuel new jobs in the biofuels sector and expand investment in transportation electrification.</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -2184,16 +2320,19 @@
         <v>0</v>
       </c>
       <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>The state oversees billions of dollars.</t>
+          <t>Finally, my executive order adds climate action as a lens to all state agency work, making lower carbon emissions a priority.</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -2221,16 +2360,19 @@
         <v>0</v>
       </c>
       <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>We should put our money where our mouth is.</t>
+          <t>The state oversees billions of dollars.</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -2249,7 +2391,7 @@
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -2258,23 +2400,26 @@
         <v>0</v>
       </c>
       <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>And there is more.</t>
+          <t>We should put our money where our mouth is.</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
@@ -2286,25 +2431,28 @@
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="n">
         <v>0</v>
       </c>
       <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>These efforts will reduce emissions from transportation and industry.</t>
+          <t>And there is more.</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -2332,20 +2480,23 @@
         <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>As huge contributors to climate change, that’s really important.</t>
+          <t>These efforts will reduce emissions from transportation and industry.</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
@@ -2360,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -2369,20 +2520,23 @@
         <v>0</v>
       </c>
       <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>But we use energy in every facet of our lives.</t>
+          <t>As huge contributors to climate change, that’s really important.</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53" t="n">
         <v>0</v>
@@ -2400,22 +2554,25 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
         <v>0</v>
       </c>
       <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Our buildings.</t>
+          <t>But we use energy in every facet of our lives.</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -2431,7 +2588,7 @@
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2443,20 +2600,23 @@
         <v>0</v>
       </c>
       <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>The appliances we put inside them.</t>
+          <t>Our buildings.</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
@@ -2471,7 +2631,7 @@
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -2480,16 +2640,19 @@
         <v>0</v>
       </c>
       <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>The power we use to turn them on.</t>
+          <t>The appliances we put inside them.</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -2517,16 +2680,19 @@
         <v>0</v>
       </c>
       <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>We will accelerate the transition to clean energy in our electricity and natural gas sectors, and set higher standards for building codes and appliances.</t>
+          <t>The power we use to turn them on.</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -2554,20 +2720,23 @@
         <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>I am setting these targets and charting the direction forward.</t>
+          <t>We will accelerate the transition to clean energy in our electricity and natural gas sectors, and set higher standards for building codes and appliances.</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
@@ -2591,20 +2760,23 @@
         <v>0</v>
       </c>
       <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>However, there will be significant opportunity for public input.</t>
+          <t>I am setting these targets and charting the direction forward.</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
@@ -2622,22 +2794,25 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="n">
         <v>0</v>
       </c>
       <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Full details will be hammered out during agency rulemaking processes.</t>
+          <t>However, there will be significant opportunity for public input.</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -2665,16 +2840,19 @@
         <v>0</v>
       </c>
       <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>In addition, it is my continued expectation that climate action and the growth of our economy will not be mutually exclusive.</t>
+          <t>Full details will be hammered out during agency rulemaking processes.</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -2693,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -2702,20 +2880,23 @@
         <v>0</v>
       </c>
       <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>As we look ahead, I am committed to including money for these three critical climate-related investments in my next budget:</t>
+          <t>In addition, it is my continued expectation that climate action and the growth of our economy will not be mutually exclusive.</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D62" t="n">
         <v>0</v>
@@ -2727,32 +2908,35 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="n">
         <v>0</v>
       </c>
       <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Funding environmental justice work.</t>
+          <t>As we look ahead, I am committed to including money for these three critical climate-related investments in my next budget:</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D63" t="n">
         <v>0</v>
@@ -2770,22 +2954,25 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="n">
         <v>0</v>
       </c>
       <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>This means including communities most-impacted by climate change as we build a more resilient economy.</t>
+          <t>Funding environmental justice work.</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -2813,20 +3000,23 @@
         <v>0</v>
       </c>
       <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Creating a just transition fund.</t>
+          <t>This means including communities most-impacted by climate change as we build a more resilient economy.</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D65" t="n">
         <v>0</v>
@@ -2844,26 +3034,29 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="n">
         <v>0</v>
       </c>
       <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>We’ve already created 55,000 clean energy jobs.</t>
+          <t>Creating a just transition fund.</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D66" t="n">
         <v>0</v>
@@ -2878,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -2887,16 +3080,19 @@
         <v>0</v>
       </c>
       <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>We need to train and prepare more workers for good-paying jobs in Oregons growing clean energy economy.</t>
+          <t>We’ve already created 55,000 clean energy jobs.</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -2915,29 +3111,32 @@
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>And, tackling wildfire mitigation work.</t>
+          <t>We need to train and prepare more workers for good-paying jobs in Oregons growing clean energy economy.</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68" t="n">
         <v>0</v>
@@ -2955,22 +3154,25 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="n">
         <v>0</v>
       </c>
       <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Climate change has made wildfires more frequent and more intense.</t>
+          <t>And, tackling wildfire mitigation work.</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -2986,7 +3188,7 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2998,20 +3200,23 @@
         <v>0</v>
       </c>
       <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>We must invest in fuels reduction, which will create jobs in rural Oregon, and foster healthier landscapes.</t>
+          <t>Climate change has made wildfires more frequent and more intense.</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D70" t="n">
         <v>0</v>
@@ -3035,20 +3240,23 @@
         <v>0</v>
       </c>
       <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>I deeply appreciate the action of the legislature’s Democratic Leadership to allocate the necessary resources for state agencies to carry out this work.</t>
+          <t>We must invest in fuels reduction, which will create jobs in rural Oregon, and foster healthier landscapes.</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D71" t="n">
         <v>0</v>
@@ -3060,32 +3268,35 @@
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="n">
         <v>0</v>
       </c>
       <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>I am particularly grateful to the Speaker of the House Tina Kotek and Senate President Peter Courtney for their leadership.</t>
+          <t>I deeply appreciate the action of the legislature’s Democratic Leadership to allocate the necessary resources for state agencies to carry out this work.</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D72" t="n">
         <v>0</v>
@@ -3100,25 +3311,28 @@
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="n">
         <v>0</v>
       </c>
       <c r="K72" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>I also want to thank the attorneys at the Oregon Department of Justice who carefully reviewed this executive order to make sure that we are as ambitious as we can be, while fully complying with existing laws and the Oregon Constitution.</t>
+          <t>I am particularly grateful to the Speaker of the House Tina Kotek and Senate President Peter Courtney for their leadership.</t>
         </is>
       </c>
       <c r="C73" t="n">
@@ -3146,20 +3360,23 @@
         <v>0</v>
       </c>
       <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>I look forward to working with Oregonians across the state on implementing this order, in such a way that does not exacerbate existing economic disparities in our rural communities, our tribes, our low-income families, and our communities of color.</t>
+          <t>I also want to thank the attorneys at the Oregon Department of Justice who carefully reviewed this executive order to make sure that we are as ambitious as we can be, while fully complying with existing laws and the Oregon Constitution.</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D74" t="n">
         <v>0</v>
@@ -3171,32 +3388,35 @@
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="n">
         <v>0</v>
       </c>
       <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Because, we’re all in this together.</t>
+          <t>I look forward to working with Oregonians across the state on implementing this order, in such a way that does not exacerbate existing economic disparities in our rural communities, our tribes, our low-income families, and our communities of color.</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D75" t="n">
         <v>0</v>
@@ -3211,25 +3431,28 @@
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="n">
         <v>0</v>
       </c>
       <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>And if we can make progress on climate change, we just might have a world that we can pass on to our children.</t>
+          <t>Because, we’re all in this together.</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -3245,32 +3468,35 @@
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Thank you.</t>
+          <t>And if we can make progress on climate change, we just might have a world that we can pass on to our children.</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D77" t="n">
         <v>0</v>
@@ -3285,52 +3511,98 @@
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
         <v>0</v>
       </c>
       <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Thank you.</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>0</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B79" t="inlineStr">
         <is>
           <t>Now, I’ll sign the order and then take a few questions.</t>
         </is>
       </c>
-      <c r="C78" t="n">
-        <v>0</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0</v>
-      </c>
-      <c r="E78" t="n">
-        <v>0</v>
-      </c>
-      <c r="F78" t="n">
-        <v>0</v>
-      </c>
-      <c r="G78" t="n">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
-      <c r="K78" t="n">
+      <c r="C79" t="n">
+        <v>0</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" t="n">
         <v>0</v>
       </c>
     </row>

--- a/test_speeches/predictions/Coding_Differneces_140_AI.xlsx
+++ b/test_speeches/predictions/Coding_Differneces_140_AI.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Metaphor/Similie</t>
+          <t>Metaphor/Simile</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -456,7 +456,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Stories/Anecdotes</t>
+          <t>Stories / anecdotes</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -466,27 +466,27 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Lists</t>
+          <t xml:space="preserve">Lists / Repetition </t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Repetition</t>
+          <t>Moral conviction</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Moral_conviction</t>
+          <t>Sentiment of the collective</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Sentiment_of_the_collective</t>
+          <t>Ambitious goals / Setting high expectations</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Setting_high_expectations</t>
+          <t>Confidence in goals</t>
         </is>
       </c>
     </row>
